--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -54,7 +54,7 @@
     <t>actiTIME 2014 Pro</t>
   </si>
   <si>
-    <t>logsdsad</t>
+    <t>Login</t>
   </si>
 </sst>
 </file>
